--- a/src/test/resources/dataDriven/ServiciosVida.xlsx
+++ b/src/test/resources/dataDriven/ServiciosVida.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianmaurysolis/Documents/Documentos/ANDROID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ProyCanalApp/Android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D3C84-107F-BB41-9F22-DCC8A1862B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F976A86-F88E-9040-9567-3BFEE20FEFB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="10200" windowWidth="25340" windowHeight="9880" activeTab="1" xr2:uid="{897FEA26-AEC5-9349-951A-1C74BA5F166B}"/>
+    <workbookView xWindow="9220" yWindow="10200" windowWidth="25340" windowHeight="9880" xr2:uid="{897FEA26-AEC5-9349-951A-1C74BA5F166B}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="4" r:id="rId1"/>
-    <sheet name="TiempoInactConsultasVidaHome" sheetId="16" r:id="rId2"/>
+    <sheet name="TiempoInactServiciosVida" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>usar</t>
   </si>
@@ -64,21 +64,6 @@
     <t>Módulo</t>
   </si>
   <si>
-    <t>Consulta Salud</t>
-  </si>
-  <si>
-    <t>@ConsultaNumeroDePoliza</t>
-  </si>
-  <si>
-    <t>@TiempoInactividadConsultasSalud</t>
-  </si>
-  <si>
-    <t>Consulta el numero de la poliza</t>
-  </si>
-  <si>
-    <t>Esperar 15 min de inactividad en el modulo de seguro Consulta Salud</t>
-  </si>
-  <si>
     <t>44926877</t>
   </si>
   <si>
@@ -92,13 +77,21 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>Servicios Vida</t>
+  </si>
+  <si>
+    <t>@TiempoInactividadServiciosVida</t>
+  </si>
+  <si>
+    <t>Esperar 15 min de inactividad en el modulo Servicios Vida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -222,7 +215,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,18 +537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C42A7D-7837-8E42-8A35-D44D494A8A75}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.33203125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="44.5"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="87.33203125"/>
-    <col min="4" max="4" customWidth="true" width="8.1640625"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -574,37 +567,21 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" location="ConsultaNumeroDePoliza!A1" display="Aqui" xr:uid="{09DA6967-1CEE-1D4E-B37B-FA98F2B35043}"/>
-    <hyperlink ref="D3" location="TiempoInactividadConsultasSalud!A1" display="Aqui" xr:uid="{872D1620-CCAC-3447-AECD-AFB303A66427}"/>
+    <hyperlink ref="D2" location="TiempoInactividadConsultasSalud!A1" display="Aqui" xr:uid="{872D1620-CCAC-3447-AECD-AFB303A66427}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -614,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1437C3-4DB9-A941-B4F5-F5230B0FAA13}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+    <sheetView topLeftCell="A2" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -648,16 +625,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
